--- a/MonsterBattlesTypeChart.xlsx
+++ b/MonsterBattlesTypeChart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="11955"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19200" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +137,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,24 +151,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -622,7 +652,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,10 +693,10 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -951,7 +981,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -982,11 +1012,11 @@
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1014,10 +1044,10 @@
         <v>12</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
